--- a/Survey_Data/Pacific-Oyster-Traits-SurveyData-Deidetified.xlsx
+++ b/Survey_Data/Pacific-Oyster-Traits-SurveyData-Deidetified.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/ernest_chuku_utas_edu_au/Documents/PhD/Thesis/Thesis-Write-Up/Chapter 1/Manuscript/Final/Data and Codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/ernest_chuku_utas_edu_au/Documents/PhD/Thesis/Thesis-Write-Up/Chapter 1/Manuscript/2.Submitted-NatureFood/Data and Codes/Survey_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DACCA3D7-FC2E-8B49-ABFB-A620934B8D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C48AFA-5B70-4543-AAFE-3D476715D53B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{DACCA3D7-FC2E-8B49-ABFB-A620934B8D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24703887-8AAE-D845-9418-94C46A21CDED}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="0" windowWidth="30140" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>I think there is more interest in the providence of oysters than they used  to be, you know a lot of people now want to know where their oysters were farmed and by whom so if there is information about the grower that can travel with the oysters then that provide the motivation for them to buy. There is also the nutrition aspect</t>
   </si>
   <si>
-    <t>Yes we prefer ISI selectively breed oysters always but if we can, we always get them because of consistency of growth, consistency of condition and shape</t>
-  </si>
-  <si>
     <t>It helps us sell more oysters</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>Meat shell cavity condition index, meat condition, color and meat size</t>
   </si>
   <si>
-    <t>A.	Looking at A, it means it’s a slow grown oyster with good genetic traits to have. I was sharing with the eveness of the width and the length of the picture A, that the depth of the cut would be evn as the width and the length and that for me it’s the aesthetics for them</t>
-  </si>
-  <si>
     <t>Because I know more than someone in the restaurants and having been in the industry for 15 years is the light and whiter looking shell. I know if that is the appearance of the oyster that it has been subjected to more energy in the water in its life and therefore it’s a hardest shell with more density in the shell and therefore a healthy animal and the prospects of that oyster travelling well, being healthy is high on the agenda of my thought process and that’s why I would choose it</t>
   </si>
   <si>
@@ -302,18 +296,12 @@
     <t>We are seed to sales generally. We buy all our products as spat and grow them all the way through. We are a family business basically so a small operation we are not a corporate or anything like that</t>
   </si>
   <si>
-    <t>Yes we get the AISI with the highest pedigree for POMS resistance whenever we can we do have a few triploids on the farm at the moment that have a lower bvb that are strictly ISI stock. No, there is no real indication from the consumer end or buyers because all our sales are for human consumption that seems to be a no issue at the moment. There are issues around size and condition and appearance, but we have no inquiries breeding today.</t>
-  </si>
-  <si>
     <t>One of the observations with growth rate is that it comes at the expense of condition. The shell is trying to put The energy that they have into growing shell, rather than maintaining plump meats so its important but its very concerning if growth rate comes at the expense of meat condition. No, we have very productive bays growth rates are typically high anyway and it is very easy to sell plump oysters but very difficult to sell oysters that have poor meat condition</t>
   </si>
   <si>
     <t>Very important because we spend very large amount of time rearing stock into large sizes so we hate if we have uniformity of growth for anything that can reduce the number of handlings over the life cycle of the oyster.. it simply comes off your handing expenses, so uniformity of growth is right up there</t>
   </si>
   <si>
-    <t>With the advent of POMS, that was the number one priority everything else went out the window basically. It didn’t matter on shape condition or anything else, and something that survived POMS was the focus of the ISI breeding program and rightfully so</t>
-  </si>
-  <si>
     <t>Important but not particularly important. Like the L mortality rates, the L sales versus as bad inputs  we running a very low mortality rates anywhere so whether that’s to do with our farming practices or our environment mortality isn’t particular big issue for us at the moment</t>
   </si>
   <si>
@@ -332,9 +320,6 @@
     <t>We’ve got an identified problem and breeding seems to be the answer don’t think there is any environmental factors that support my number one production trait</t>
   </si>
   <si>
-    <t>From the disease we talking about which is POMS, it seems to be resistance as easily identified the family so its that ability to inherit resistance going forward which is the basis of what AISI is doing since POMS so I don’t there’s anything new in that, my opinion</t>
-  </si>
-  <si>
     <t>No scientific checks yet but things like growing height and stocking densities. We keep their densities low and try keep our growing heights at a points where the oysters are not overly exposed by falling that under the hot weather under stress from lack of water either. Just try to keep them happy healthy and spaced apart</t>
   </si>
   <si>
@@ -669,9 +654,6 @@
   </si>
   <si>
     <t>Since POMS we’ve had the issue with mainly hatcheries and it wasn’t so much the hatcheries tears, it took them a couple of years to get back up to speed, so the hatchery production in South Australia that we lost. In the industry, it took a while for the south Australia hatchery to get their wheels on. Tasmania is back up  The other thing to add is that its all being diploid production to get our wheels back on but we have not had plentiful tripliods to run side by side with the diploids</t>
-  </si>
-  <si>
-    <t>Yes, we closely follow the breeding program, we work preferably with hatcheries whom we can work together to determine family crosses so we work directly with a hatchery on the batches and designing the crosses and we work with the ISI geneticist Peter Kibi at CSIRO to help guide us in selecting the family crosses out of the available broodstock and we deliberately hold broodstock ourselves so that we can ensure high quality broodstock as early as possible in the breeding program. so we actually worked with ISI in Tasmania and pretty much help them get the broodstock for the whole breeding cycle sort of 12 month away  by working to bring their condition broodstock faster than they were able to do prior. So we’ve worked very closely with pedigree, we are very interested in selecting and managing our stock what goes on their farms.It is not of any interest to our clients other than they rely on us for consistency of supply but they have no knowledge or awareness of our activity in families. So we do some good work with gold oysters as I was involved in selecting. If  we go back in time Ernest we didn’t get pushed by some customers for colour there was interesting concept where gold was one.</t>
   </si>
   <si>
     <t>Yes. It enhances our productivity, that is more production per unit of area of farm, if you like, but it also important to know that growth rate we would take to mean both shell size and meat so growth rate a large shell on a small meat is not much use to us, so its needs to be, lets call it uniform, if that’s what uniform means. but the main thing around growth rate is it needs to be yes but shell and meat. A fast growth rate is preferred because there is a higher productivity. Slow growth is a problem, we often have to throw out stock that is slow</t>
@@ -929,9 +911,6 @@
     <t>We are just a medium size farm, nothing particularly important about us just a grower.</t>
   </si>
   <si>
-    <t>Yes, we always buy pedigree or ISI stock. Yes we interested in pedigree  I went to a seminar here in smoky value and  had some of the ISI stock on display there. And I was really impressed with the quality of the oysters, I had this so I wanted to be on board with it there. Also, just knowing what selective breeding has done for other industries I think the potential to improve what we're doing through selective ratings really high.</t>
-  </si>
-  <si>
     <t>I definitely think that it is, is important but it's probably way down the list on importance. Obviously you don't want an oyster that's going to sit out there and not grow but an oyster that grows superfast is hard to handle. so something that's in in the middle range. I think for  growth rates something that's going to grow at a good steady rate but not excessively I think.</t>
   </si>
   <si>
@@ -1013,9 +992,6 @@
     <t>Oysters are seen as a luxury special event product. Most oyster sales are for things like weddings or birthdays. it's an easy sale to have Pacific oysters a canopy for those kind of events. So that t in my experience what motivates the sale of oyster is often in conjunction with champagne or white wine, so you know your wine drinkers are traditionally Your bureaus to consumers. there is also obviously a link between stout beer and oysters so you can sort of marry that a little bit, by and large, one of the motivating factors is a celebration, as well as matching with a premium sparkling wine. there's I guess times of the year that are also important for oyster consumption is the summertime. You know people, are more willing to  buy dozens of oysters around Christmas time as a celebration. The focus is on the celebration when i'm pitching so that works, particularly well for me as an event chef at the moment because people are hiring me for an event.</t>
   </si>
   <si>
-    <t>We hold ISIS trials on the farm</t>
-  </si>
-  <si>
     <t>if I have a good oyster come on my farm from there, so the batch that came from the hatchery and then, if possible, try and get the same sort of batch from that hatchery again down the track.</t>
   </si>
   <si>
@@ -1061,9 +1037,6 @@
     <t>Does not affect us</t>
   </si>
   <si>
-    <t>If the oysters grow quickly and frailly You can get mortalities as I mentioned earlier. No chalkiness in the ISIS stocks</t>
-  </si>
-  <si>
     <t>Hardness (i.e., ability to withstand damage) Uniformity of shape Cup depth Colour (meat or shell) Size Smell Meat condition (appearance, cover across the body and mantle, shell cup fullness) Other, specify</t>
   </si>
   <si>
@@ -1088,9 +1061,6 @@
     <t>we're basically a farmer who sells to predominantly wholesale industry.</t>
   </si>
   <si>
-    <t>100% of our stock is ISIS POMS resistance stock so, even though we don't have POMS we specifically by POMS resistant stock. they're always assessing that stock when it comes point of view of what's the data on that stock, is it 93% or 92% ? what's the brooding coefficient? We certainly did have that the answer is yes.  first and foremost as reduced the year after POMS resistance and then second year after those quality traits, shape, condition and not so much growth rates while that's important, the most important thing is probably is the growth dispensation. When you have a batch that has a huge growth dispensation, the haves and have nots that's a real issue for me and one of those things that you're after is to know what is coming through as closely together as possible.</t>
-  </si>
-  <si>
     <t>From input to sale. the greater the opportunity to maximize your return from your lease you only have X amount of space, so the slower they grow, the less product, you can get through your farm in any given period and that reduces (something) for production  so growth rate is important.</t>
   </si>
   <si>
@@ -1175,18 +1145,12 @@
     <t>I mean our main involvement is that, historically, was the production and supply of oysters back to Tasmania oyster grows. We one of the first hatcheries to establish or the first hatchery to establish in Tasmania in the country to produce oysters so the longest history in the country with this species of oyster so we started off as a cooperative owned by industry owned by Western farmers. Rather ran governed by always departments and supplying spat back to the industry. So that's been at the core of the company sort of for the first 35 odd years and in the last five years or so we've transitioned into. We still have the purpose of supplying oysters to the industry, but we also supply mature product to the wholesale market and value added market and so forth, so we cover a lot of bases in the industry. breeding is a strength of our company. and supplying supplying the industry in Tasmania and pre poems South Australia, with good quality oysters so played a part in maintaining the industry.</t>
   </si>
   <si>
-    <t>And breeding traits breeding calculations, based on ISI data. So EBVs or POMS resistance is a big one. Performance trait data based on shell condition, Shell weight and size and so is important. I certainly base what the company produces on breeding data 100%. So without that data I can't make informed breeding decisions. I can’t ensure we're producing safe range of genetics, which will be stocked on to our farms and I can't make inbreeding so absolutely I need the pedigree breeding data to make these decisions. We do make secondary decisions on what to produce, again based on the performance of spats and oysters. So, in terms of buyers our seed customers, which by spat yes, we do to some degree, based decisions on what they are.But its quite rare that an oyster farmer in 2021 would come to our farm to request oysters from that family or that family.  Also in 2016 2017 post poems there was many inquiries that, are we pursuing our breeding from highly resistant oysters so now, the general specifics in Tasmania is highly resistant or relatively highly resistant that focus from oyster farmers has reduced because there's a lot of confidence in the stock and the pedigree. So we produce the ISI stock, the diploid stock and triploid oysters which is a different product, it behaves differently</t>
-  </si>
-  <si>
     <t>You know, obviously with a quicker growth rate, you can turn over product in a shorter time frame so which increases your  revenue and your Productivity of your operation so great growth rate is definitely important I don't think it's an important trait to pursue even faster growth rates, because there might be a compromise and the quality of your oysters if you if you keep pushing growth rates but it certainly needs to be maintained, I think I don't think it needs to be maintained, so you know growth rates slowing down absolutely not.  not too fast, but I mean that's not a problem at this point it's  how the stock is managed on the farms and the hatchery so it's  not a problem to. At this point in time, that stock is growing too fast, but it's yet if that makes sense.</t>
   </si>
   <si>
     <t>I mean naturally oyster population spread out, it will have fast mediums slow growing rates within a set population but trying to narrow that band I think is important, helps with predictability and so forth, and managing stock and managing inputs. it's a lot easier for a hatchery, for example, if there is uniformity in growth, it means you can move them through the hatchery system in a more predictable time frame and then on the farms as well it's it works quite well So yes, uniformity, is important.</t>
   </si>
   <si>
-    <t>POMS  is extremely important for Tasmania something which certainly can't go backwards, in my view, For the benefit of other traits, so I think it still needs to be maintained and kept being pushed up definitely.  POM  resistance of current lines might be 40, 50 or 60% at three months old so that's excellent compared to where we were at 45 years ago but still a big loss. we get a big POMS  outbreak on our growing areas that's still a big loss in numbers of small spat in some of our sites are nurseries, so if you lose 50% of 20 to 30 million oysters that's a big loss in terms of numbers so POMS resistance is definitely very important, from my perspective, from breeding perspective. SAMS, our companies now just involved in operations in South Australia mortality syndrome, so I would say SAMS is extremely Important to figure out, you know the mechanisms around and trying to yet alleviate issues caused by SAMS . I think there's still challenges and figuring out how to really breed as effectively for eaters we have POMS, but very important  breeding for vibriosis is not really a topic at this point in time. So I would say I haven't heard that come up as a target trait by ISI stock. It could be it could be interpreted as robustness.</t>
-  </si>
-  <si>
     <t>from a hatchery perspective nonspecific survival general robustness is probably very important, I see a lot of variability in the batches that we produce. it's tricky to measure because they hatchery conditions are actually quite dynamic and they change their small resistance systems and so forth, so it's difficult to compare over time, but generally, I would say high survival, in a hatchery setting is certainly a priority, from an oyster breeder and breeding operation yeah.  If we can have access to a better quality more robust oyster this is really DNA. you reduce costs, you know you're more efficient producer of a product so there's less wastage, the cost per unit will decrease inevitably decrease. So ultimately it's about costs, but its secondary benefit is about passing on a good quality products to another oyster farmer, if we have a good product to them they'll do better, as well. But also, if we pass on a robust product, which has a really good shelf life to a wholesaler that's also a major benefit as well, so you know Pacific oysters industries competing with the Sydney rock oysters industry, so  if our oysters a more robust than theirs surely you could demand a higher price in time.</t>
   </si>
   <si>
@@ -1313,9 +1277,6 @@
     <t>people don't know that a good quality, OYSTER is</t>
   </si>
   <si>
-    <t>Yes. I have been on ISI on the breeding program for the last six years. so genetics is very important, it brings profitability to farms. Gives you an extra 20% If you get a good batch of oysters in your systems. generally I always have a preference for selectively bread oysters . A good batch of selectively bred oysters will generally move through your system a lot more efficiently than a non-selected line.</t>
-  </si>
-  <si>
     <t>You need an animal to grow relatively quickly. But if they grow too quickly they can be hard to control and manage particularly managing shapes. So yes, growth rate is important. We've seen over the last few years where selection has been for POMS resistance, and oysters that have been really slow growing as a result, and I've been very difficult to move through our production systems. Needs to be  at the top end but not extremely quick.</t>
   </si>
   <si>
@@ -1373,9 +1334,6 @@
     <t>Well, it's the classic three to one. An oyster like B has got that balance between getting the growth as well as the meat condition. once you go to the other end like a D, you'll struggle to get condition on them. You'll get the size, but not the condition.</t>
   </si>
   <si>
-    <t>Darker seems to have a tendency to condition a bit better.  We've got batches in the ISI line this year that we've got a pure breed gold line, by their look, they stand out, and they look a bit different if you wanted to, we sell through wholesalers. We're not niche market growers. So unless you've got a niche market where you know, a golden oyster or something might stand out and be a point of difference, it already doesn't matter.</t>
-  </si>
-  <si>
     <t>I don't have a lot of comment on that.  we sell through distributors. We are a bulk handling producer. We don't generally deal with customers.</t>
   </si>
   <si>
@@ -1385,9 +1343,6 @@
     <t>Main involvement is to produce high quality broodstock for commercial production. And within that is to offer high survival  in the south Australian environment plus really good commercial traits. the role that I’m in now was only created about 12 months ago, so it's a three funded project to improve the survivability of commercial oysters in South Australia.</t>
   </si>
   <si>
-    <t>Yes Most  growers would prefer to get specific ISI family lines, if they can get them from the commercial hatcheries but in South Australia in the last four months has  been dominated by one hatchery and they haven't been using a specific family pedigree. Now the survival rates considerably better, probably because improved hatchery techniques. Also consider consistency of the size of their product is good and that good commercial shape a good meat to shell ratio. Good commercial attributes are what people are demanding in the market and when they look for those things that's where specific family pedigree is head and shoulders above the rest, because you can see, consistency in those commercial traits that the growers want. One of the key things that the growers want is consistency in the ability of the oysters to fatten so a lot of growers will tell me that family pedigree oysters are a lot better in the way they condition up</t>
-  </si>
-  <si>
     <t>Having  a consistent growth rate that is neither too fast or too slow, is  really important, in South Australia. Some specific family lines or some oysters that have been bred in the past, apparently, in some areas grow too quickly and in South Australia if they grow too quick and the Shell isn't thick they are potentially more susceptible to dying. If the oysters grow too slowly and the growers  can't get it up to sale size in a reasonable time frame that's not good either so a steady and consistent growth right is really important, in South Australia.</t>
   </si>
   <si>
@@ -2361,6 +2316,51 @@
   </si>
   <si>
     <t>In-person</t>
+  </si>
+  <si>
+    <t>We hold ASI trials on the farm</t>
+  </si>
+  <si>
+    <t>A.	Looking at A, it means it’s a slow grown oyster with good genetic traits to have. I was sharing with the eveness of the width and the length of the picture A, that the depth of the cup would be evn as the width and the length and that for me it’s the aesthetics for them</t>
+  </si>
+  <si>
+    <t>With the advent of POMS, that was the number one priority everything else went out the window basically. It didn’t matter on shape condition or anything else, and something that survived POMS was the focus of the ASI breeding program and rightfully so</t>
+  </si>
+  <si>
+    <t>Yes, we closely follow the breeding program, we work preferably with hatcheries whom we can work together to determine family crosses so we work directly with a hatchery on the batches and designing the crosses and we work with the ASI geneticist [name and organisation witheld] to help guide us in selecting the family crosses out of the available broodstock and we deliberately hold broodstock ourselves so that we can ensure high quality broodstock as early as possible in the breeding program. so we actually worked with ASI in Tasmania and pretty much help them get the broodstock for the whole breeding cycle sort of 12 month away  by working to bring their condition broodstock faster than they were able to do prior. So we’ve worked very closely with pedigree, we are very interested in selecting and managing our stock what goes on their farms.It is not of any interest to our clients other than they rely on us for consistency of supply but they have no knowledge or awareness of our activity in families. So we do some good work with gold oysters as I was involved in selecting. If  we go back in time Ernest we did get pushed by some customers for colour there was interesting concept where gold was one.</t>
+  </si>
+  <si>
+    <t>From the disease we talking about which is POMS, it seems to be resistance as easily identified the family so its that ability to inherit resistance going forward which is the basis of what ASI is doing since POMS so I don’t there’s anything new in that, my opinion</t>
+  </si>
+  <si>
+    <t>Yes we prefer ASI selectively breed oysters always but if we can, we always get them because of consistency of growth, consistency of condition and shape</t>
+  </si>
+  <si>
+    <t>And breeding traits breeding calculations, based on ASI data. So EBVs or POMS resistance is a big one. Performance trait data based on shell condition, Shell weight and size and so is important. I certainly base what the company produces on breeding data 100%. So without that data I can't make informed breeding decisions. I can’t ensure we're producing safe range of genetics, which will be stocked on to our farms and I can't make inbreeding so absolutely I need the pedigree breeding data to make these decisions. We do make secondary decisions on what to produce, again based on the performance of spats and oysters. So, in terms of buyers our seed customers, which by spat yes, we do to some degree, based decisions on what they are.But its quite rare that an oyster farmer in 2021 would come to our farm to request oysters from that family or that family.  Also in 2016 2017 post poems there was many inquiries that, are we pursuing our breeding from highly resistant oysters so now, the general specifics in Tasmania is highly resistant or relatively highly resistant that focus from oyster farmers has reduced because there's a lot of confidence in the stock and the pedigree. So we produce the ISI stock, the diploid stock and triploid oysters which is a different product, it behaves differently</t>
+  </si>
+  <si>
+    <t>100% of our stock is ASI's POMS resistance stock so, even though we don't have POMS we specifically by POMS resistant stock. they're always assessing that stock when it comes point of view of what's the data on that stock, is it 93% or 92% ? what's the brooding coefficient? We certainly did have that the answer is yes.  first and foremost as reduced the year after POMS resistance and then second year after those quality traits, shape, condition and not so much growth rates while that's important, the most important thing is probably is the growth dispensation. When you have a batch that has a huge growth dispensation, the haves and have nots that's a real issue for me and one of those things that you're after is to know what is coming through as closely together as possible.</t>
+  </si>
+  <si>
+    <t>If the oysters grow quickly and frailly You can get mortalities as I mentioned earlier. No chalkiness in the ASI stocks</t>
+  </si>
+  <si>
+    <t>Yes. I have been on ASI on the breeding program for the last six years. so genetics is very important, it brings profitability to farms. Gives you an extra 20% If you get a good batch of oysters in your systems. generally I always have a preference for selectively bread oysters . A good batch of selectively bred oysters will generally move through your system a lot more efficiently than a non-selected line.</t>
+  </si>
+  <si>
+    <t>Yes Most  growers would prefer to get specific ASI family lines, if they can get them from the commercial hatcheries but in South Australia in the last four months has  been dominated by one hatchery and they haven't been using a specific family pedigree. Now the survival rates considerably better, probably because improved hatchery techniques. Also consider consistency of the size of their product is good and that good commercial shape a good meat to shell ratio. Good commercial attributes are what people are demanding in the market and when they look for those things that's where specific family pedigree is head and shoulders above the rest, because you can see, consistency in those commercial traits that the growers want. One of the key things that the growers want is consistency in the ability of the oysters to fatten so a lot of growers will tell me that family pedigree oysters are a lot better in the way they condition up</t>
+  </si>
+  <si>
+    <t>Yes we get the ASI with the highest pedigree for POMS resistance whenever we can we do have a few triploids on the farm at the moment that have a lower bvb that are strictly ASI stock. No, there is no real indication from the consumer end or buyers because all our sales are for human consumption that seems to be a no issue at the moment. There are issues around size and condition and appearance, but we have no inquiries breeding today.</t>
+  </si>
+  <si>
+    <t>POMS  is extremely important for Tasmania something which certainly can't go backwards, in my view, For the benefit of other traits, so I think it still needs to be maintained and kept being pushed up definitely.  POM  resistance of current lines might be 40, 50 or 60% at three months old so that's excellent compared to where we were at 45 years ago but still a big loss. we get a big POMS  outbreak on our growing areas that's still a big loss in numbers of small spat in some of our sites are nurseries, so if you lose 50% of 20 to 30 million oysters that's a big loss in terms of numbers so POMS resistance is definitely very important, from my perspective, from breeding perspective. SAMS, our companies now just involved in operations in South Australia mortality syndrome, so I would say SAMS is extremely Important to figure out, you know the mechanisms around and trying to yet alleviate issues caused by SAMS . I think there's still challenges and figuring out how to really breed as effectively for eaters we have POMS, but very important  breeding for vibriosis is not really a topic at this point in time. So I would say I haven't heard that come up as a target trait by ASI stock. It could be it could be interpreted as robustness.</t>
+  </si>
+  <si>
+    <t>Yes, we always buy pedigree or ASI stock. Yes we interested in pedigree  I went to a seminar here in smoky value and  had some of the ASI stock on display there. And I was really impressed with the quality of the oysters, I had this so I wanted to be on board with it there. Also, just knowing what selective breeding has done for other industries I think the potential to improve what we're doing through selective ratings really high.</t>
+  </si>
+  <si>
+    <t>Darker seems to have a tendency to condition a bit better.  We've got batches in the ASI line this year that we've got a pure breed gold line, by their look, they stand out, and they look a bit different if you wanted to, we sell through wholesalers. We're not niche market growers. So unless you've got a niche market where you know, a golden oyster or something might stand out and be a point of difference, it already doesn't matter.</t>
   </si>
 </sst>
 </file>
@@ -2409,7 +2409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -2420,7 +2420,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2440,18 +2439,6 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2744,15 +2731,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DN131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="CB10" sqref="CB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" style="8"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.1640625" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
@@ -2795,374 +2781,374 @@
   <sheetData>
     <row r="1" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1" t="s">
+        <v>599</v>
+      </c>
+      <c r="H1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J1" t="s">
+        <v>593</v>
+      </c>
+      <c r="K1" t="s">
+        <v>594</v>
+      </c>
+      <c r="L1" t="s">
+        <v>585</v>
+      </c>
+      <c r="M1" t="s">
+        <v>586</v>
+      </c>
+      <c r="N1" t="s">
+        <v>587</v>
+      </c>
+      <c r="O1" t="s">
+        <v>588</v>
+      </c>
+      <c r="P1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>590</v>
+      </c>
+      <c r="R1" t="s">
+        <v>591</v>
+      </c>
+      <c r="S1" t="s">
+        <v>601</v>
+      </c>
+      <c r="T1" t="s">
+        <v>704</v>
+      </c>
+      <c r="U1" t="s">
+        <v>602</v>
+      </c>
+      <c r="V1" t="s">
+        <v>603</v>
+      </c>
+      <c r="W1" t="s">
+        <v>604</v>
+      </c>
+      <c r="X1" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>606</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>609</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>703</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>711</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>710</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AL1" t="s">
         <v>615</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>771</v>
-      </c>
-      <c r="G1" t="s">
-        <v>614</v>
-      </c>
-      <c r="H1" t="s">
-        <v>613</v>
-      </c>
-      <c r="I1" t="s">
-        <v>607</v>
-      </c>
-      <c r="J1" t="s">
-        <v>608</v>
-      </c>
-      <c r="K1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1" t="s">
-        <v>600</v>
-      </c>
-      <c r="M1" t="s">
-        <v>601</v>
-      </c>
-      <c r="N1" t="s">
-        <v>602</v>
-      </c>
-      <c r="O1" t="s">
-        <v>603</v>
-      </c>
-      <c r="P1" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>605</v>
-      </c>
-      <c r="R1" t="s">
-        <v>606</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="AM1" t="s">
         <v>616</v>
       </c>
-      <c r="T1" t="s">
-        <v>719</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="AN1" t="s">
         <v>617</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AO1" t="s">
         <v>618</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AP1" t="s">
         <v>619</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AQ1" t="s">
         <v>620</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AR1" t="s">
         <v>621</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AS1" t="s">
         <v>622</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AT1" t="s">
         <v>623</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AU1" t="s">
         <v>624</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AV1" t="s">
         <v>625</v>
       </c>
-      <c r="AD1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>726</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>725</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>724</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AW1" t="s">
         <v>626</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AX1" t="s">
         <v>627</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AY1" t="s">
+        <v>708</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>628</v>
       </c>
-      <c r="AK1" t="s">
-        <v>629</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>630</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>631</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>632</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="BA1" t="s">
         <v>633</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BB1" t="s">
         <v>634</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BC1" t="s">
         <v>635</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BD1" t="s">
         <v>636</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BE1" t="s">
         <v>637</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BF1" t="s">
         <v>638</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BG1" t="s">
         <v>639</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BH1" t="s">
         <v>640</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BI1" t="s">
         <v>641</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BJ1" t="s">
         <v>642</v>
       </c>
-      <c r="AY1" t="s">
-        <v>723</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="BK1" t="s">
         <v>643</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BL1" t="s">
+        <v>644</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>645</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>646</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>651</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>652</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>653</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>654</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>655</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>656</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>657</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>658</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>659</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>660</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>647</v>
+      </c>
+      <c r="CB1" t="s">
         <v>648</v>
       </c>
-      <c r="BB1" t="s">
-        <v>649</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>650</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>651</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>652</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>653</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>654</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>655</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>656</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>657</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>658</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>659</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>660</v>
-      </c>
-      <c r="BN1" t="s">
+      <c r="CC1" t="s">
         <v>661</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CD1" t="s">
+        <v>662</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>663</v>
+      </c>
+      <c r="CF1" t="s">
         <v>664</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CG1" t="s">
         <v>665</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CH1" t="s">
         <v>666</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CI1" t="s">
         <v>667</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CJ1" t="s">
         <v>668</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CK1" t="s">
         <v>669</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CL1" t="s">
         <v>670</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CM1" t="s">
         <v>671</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CN1" t="s">
         <v>672</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CO1" t="s">
         <v>673</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CP1" t="s">
         <v>674</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CQ1" t="s">
         <v>675</v>
       </c>
-      <c r="CA1" t="s">
-        <v>662</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>663</v>
-      </c>
-      <c r="CC1" t="s">
+      <c r="CR1" t="s">
         <v>676</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CS1" t="s">
         <v>677</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CT1" t="s">
         <v>678</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CU1" t="s">
         <v>679</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CV1" t="s">
         <v>680</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CW1" t="s">
         <v>681</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CX1" t="s">
         <v>682</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CY1" t="s">
         <v>683</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CZ1" t="s">
         <v>684</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="DA1" t="s">
         <v>685</v>
       </c>
-      <c r="CM1" t="s">
-        <v>686</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>687</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>688</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>689</v>
-      </c>
-      <c r="CQ1" t="s">
+      <c r="DB1" t="s">
         <v>690</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="DC1" t="s">
         <v>691</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="DD1" t="s">
         <v>692</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="DE1" t="s">
         <v>693</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DF1" t="s">
         <v>694</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="DG1" t="s">
         <v>695</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DH1" t="s">
         <v>696</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DI1" t="s">
         <v>697</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DJ1" t="s">
         <v>698</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DK1" t="s">
         <v>699</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DL1" t="s">
         <v>700</v>
       </c>
-      <c r="DB1" t="s">
-        <v>705</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>706</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>707</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>708</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>709</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>710</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>711</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>712</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>713</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>714</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>715</v>
-      </c>
       <c r="DM1" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="DN1" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
       <c r="G2">
@@ -3178,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3205,7 +3191,7 @@
         <v>7052</v>
       </c>
       <c r="T2" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U2">
         <v>3</v>
@@ -3242,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="AI2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AJ2" t="s">
         <v>3</v>
@@ -3296,22 +3282,22 @@
         <v>11</v>
       </c>
       <c r="BA2" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="BB2" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="BC2" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>623</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>631</v>
+      </c>
+      <c r="BF2" t="s">
         <v>632</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>638</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>646</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>647</v>
       </c>
       <c r="BG2" t="s">
         <v>12</v>
@@ -3329,7 +3315,7 @@
         <v>16</v>
       </c>
       <c r="BL2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="BM2" t="s">
         <v>17</v>
@@ -3443,16 +3429,16 @@
         <v>28</v>
       </c>
       <c r="CX2" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY2" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ2" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA2" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DC2" t="s">
         <v>1</v>
@@ -3493,25 +3479,25 @@
     </row>
     <row r="3" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3">
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3520,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3547,7 +3533,7 @@
         <v>7216</v>
       </c>
       <c r="T3" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U3">
         <v>15</v>
@@ -3586,31 +3572,31 @@
         <v>36</v>
       </c>
       <c r="AK3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AL3" t="s">
         <v>1</v>
       </c>
       <c r="AM3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AN3" t="s">
         <v>1</v>
       </c>
       <c r="AO3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AP3" t="s">
         <v>1</v>
       </c>
       <c r="AQ3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AR3" t="s">
         <v>1</v>
       </c>
       <c r="AS3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AT3" t="s">
         <v>1</v>
@@ -3631,46 +3617,46 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BA3" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="BB3" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="BC3" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD3" t="s">
         <v>632</v>
       </c>
-      <c r="BD3" t="s">
-        <v>647</v>
-      </c>
       <c r="BE3" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="BF3" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="BG3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BH3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BI3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BJ3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="BK3" t="s">
         <v>33</v>
       </c>
       <c r="BL3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="BM3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="BN3" t="s">
         <v>34</v>
@@ -3715,7 +3701,7 @@
         <v>39</v>
       </c>
       <c r="CB3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="CC3">
         <v>2</v>
@@ -3781,19 +3767,19 @@
         <v>28</v>
       </c>
       <c r="CX3" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY3" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ3" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA3" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="DC3" t="s">
         <v>1</v>
@@ -3834,25 +3820,25 @@
     </row>
     <row r="4" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>732</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>1</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3861,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3888,7 +3874,7 @@
         <v>7052</v>
       </c>
       <c r="T4" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U4">
         <v>10</v>
@@ -3903,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Z4" s="1">
         <v>24000000</v>
@@ -3913,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AK4" t="s">
         <v>42</v>
@@ -4030,16 +4016,16 @@
         <v>28</v>
       </c>
       <c r="CX4" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CY4" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CZ4" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA4" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DC4" t="s">
         <v>1</v>
@@ -4080,18 +4066,18 @@
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>733</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
       </c>
       <c r="G5">
@@ -4107,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4134,7 +4120,7 @@
         <v>7000</v>
       </c>
       <c r="T5" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U5">
         <v>36</v>
@@ -4149,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z5" s="1">
         <v>9000000</v>
@@ -4174,139 +4160,139 @@
         <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AJ5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>762</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
         <v>210</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
         <v>211</v>
       </c>
-      <c r="AL5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="s">
+      <c r="AX5" t="s">
         <v>212</v>
       </c>
-      <c r="AN5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>213</v>
       </c>
-      <c r="AP5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ5" t="s">
+      <c r="BA5" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>631</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>630</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>623</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>632</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>617</v>
+      </c>
+      <c r="BG5" t="s">
         <v>214</v>
       </c>
-      <c r="AR5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="BH5" t="s">
         <v>215</v>
       </c>
-      <c r="AT5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU5" t="s">
+      <c r="BI5" t="s">
         <v>216</v>
       </c>
-      <c r="AV5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW5" t="s">
+      <c r="BJ5" t="s">
+        <v>280</v>
+      </c>
+      <c r="BK5" t="s">
         <v>217</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="BL5" t="s">
         <v>218</v>
       </c>
-      <c r="AY5">
-        <v>1</v>
-      </c>
-      <c r="AZ5" t="s">
+      <c r="BM5" t="s">
+        <v>218</v>
+      </c>
+      <c r="BN5" t="s">
         <v>219</v>
       </c>
-      <c r="BA5" t="s">
-        <v>644</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>646</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>645</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>638</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>647</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>632</v>
-      </c>
-      <c r="BG5" t="s">
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="s">
         <v>220</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>221</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>286</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>224</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>225</v>
-      </c>
-      <c r="BO5">
-        <v>1</v>
-      </c>
-      <c r="BP5">
-        <v>1</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>1</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
-        <v>1</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>226</v>
       </c>
       <c r="CC5">
         <v>1</v>
@@ -4351,13 +4337,13 @@
         <v>23</v>
       </c>
       <c r="CQ5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="CR5" t="s">
         <v>26</v>
       </c>
       <c r="CS5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="CT5" t="s">
         <v>26</v>
@@ -4372,19 +4358,19 @@
         <v>28</v>
       </c>
       <c r="CX5" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY5" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ5" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA5" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="DC5" t="s">
         <v>1</v>
@@ -4420,23 +4406,23 @@
         <v>0</v>
       </c>
       <c r="DN5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>734</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B6" t="s">
+        <v>757</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>1</v>
       </c>
       <c r="G6">
@@ -4452,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4479,7 +4465,7 @@
         <v>7190</v>
       </c>
       <c r="T6" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U6">
         <v>5</v>
@@ -4516,139 +4502,139 @@
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AJ6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>770</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="s">
         <v>87</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AP6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>761</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="s">
         <v>88</v>
       </c>
-      <c r="AL6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AT6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="s">
         <v>89</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>93</v>
       </c>
       <c r="AV6" t="s">
         <v>3</v>
       </c>
       <c r="AW6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>630</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>617</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>623</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>629</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>631</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>632</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>763</v>
+      </c>
+      <c r="BI6" t="s">
         <v>94</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="BJ6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BK6" t="s">
         <v>95</v>
       </c>
-      <c r="AY6">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="BL6" t="s">
         <v>96</v>
       </c>
-      <c r="BA6" t="s">
-        <v>645</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>632</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>638</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>644</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>646</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>647</v>
-      </c>
-      <c r="BG6" t="s">
+      <c r="BM6" t="s">
         <v>97</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BN6" t="s">
         <v>98</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="s">
         <v>99</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>287</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>101</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BO6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>1</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6">
-        <v>1</v>
-      </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>104</v>
       </c>
       <c r="CC6">
         <v>2</v>
@@ -4693,13 +4679,13 @@
         <v>23</v>
       </c>
       <c r="CQ6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="CR6" t="s">
         <v>26</v>
       </c>
       <c r="CS6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="CT6" t="s">
         <v>26</v>
@@ -4714,19 +4700,19 @@
         <v>28</v>
       </c>
       <c r="CX6" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="CY6" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CZ6" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="DA6" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="DC6" t="s">
         <v>1</v>
@@ -4762,30 +4748,30 @@
         <v>0</v>
       </c>
       <c r="DN6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>735</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" t="s">
+        <v>757</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>1</v>
       </c>
       <c r="G7">
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4794,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4821,7 +4807,7 @@
         <v>7190</v>
       </c>
       <c r="T7" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U7">
         <v>3</v>
@@ -4836,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Z7" s="1">
         <v>20000000</v>
@@ -4860,85 +4846,85 @@
         <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AJ7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="s">
         <v>110</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AT7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="s">
         <v>111</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>116</v>
       </c>
       <c r="AV7" t="s">
         <v>3</v>
       </c>
       <c r="AW7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AX7" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AY7">
         <v>1</v>
       </c>
       <c r="AZ7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="BA7" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="BB7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="BC7" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD7" t="s">
         <v>632</v>
       </c>
-      <c r="BD7" t="s">
-        <v>647</v>
-      </c>
       <c r="BE7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="BF7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="BG7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="BH7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="BN7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BO7">
         <v>1</v>
@@ -4977,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="CB7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="CC7">
         <v>2</v>
@@ -5016,19 +5002,19 @@
         <v>-2</v>
       </c>
       <c r="CO7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="CP7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="CQ7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="CR7" t="s">
         <v>27</v>
       </c>
       <c r="CS7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="CT7" t="s">
         <v>27</v>
@@ -5043,19 +5029,19 @@
         <v>28</v>
       </c>
       <c r="CX7" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="CY7" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CZ7" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA7" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="DB7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="DC7" t="s">
         <v>3</v>
@@ -5063,18 +5049,18 @@
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>736</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B8" t="s">
+        <v>757</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>1</v>
       </c>
       <c r="G8">
@@ -5090,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -5117,7 +5103,7 @@
         <v>2537</v>
       </c>
       <c r="T8" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="U8">
         <v>8</v>
@@ -5132,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z8" s="1">
         <v>900000</v>
@@ -5157,136 +5143,136 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="s">
         <v>124</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="s">
         <v>125</v>
       </c>
-      <c r="AL8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
         <v>126</v>
       </c>
-      <c r="AN8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AX8" t="s">
         <v>127</v>
       </c>
-      <c r="AP8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="s">
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>128</v>
       </c>
-      <c r="AR8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="BA8" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>630</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>632</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>623</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>631</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>617</v>
+      </c>
+      <c r="BG8" t="s">
         <v>129</v>
       </c>
-      <c r="AT8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU8" t="s">
+      <c r="BH8" t="s">
         <v>130</v>
       </c>
-      <c r="AV8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="BI8" t="s">
         <v>131</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="BJ8" t="s">
         <v>132</v>
       </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="AZ8" t="s">
+      <c r="BK8" t="s">
         <v>133</v>
       </c>
-      <c r="BA8" t="s">
-        <v>644</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>645</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>647</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>638</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>646</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>632</v>
-      </c>
-      <c r="BG8" t="s">
+      <c r="BL8" t="s">
+        <v>286</v>
+      </c>
+      <c r="BM8" t="s">
         <v>134</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BN8" t="s">
         <v>135</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BO8">
+        <v>1</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>1</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="s">
         <v>136</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>137</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>292</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>139</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO8">
-        <v>1</v>
-      </c>
-      <c r="BP8">
-        <v>1</v>
-      </c>
-      <c r="BQ8">
-        <v>1</v>
-      </c>
-      <c r="BR8">
-        <v>1</v>
-      </c>
-      <c r="BS8">
-        <v>1</v>
-      </c>
-      <c r="BT8">
-        <v>1</v>
-      </c>
-      <c r="BU8">
-        <v>1</v>
-      </c>
-      <c r="BV8">
-        <v>0</v>
-      </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>1</v>
-      </c>
-      <c r="BY8">
-        <v>1</v>
-      </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>141</v>
       </c>
       <c r="CC8">
         <v>2</v>
@@ -5331,13 +5317,13 @@
         <v>23</v>
       </c>
       <c r="CQ8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="CR8" t="s">
         <v>24</v>
       </c>
       <c r="CS8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="CT8" t="s">
         <v>24</v>
@@ -5352,7 +5338,7 @@
         <v>28</v>
       </c>
       <c r="DB8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="DC8" t="s">
         <v>1</v>
@@ -5388,30 +5374,30 @@
         <v>0</v>
       </c>
       <c r="DN8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>737</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B9" t="s">
+        <v>757</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>1</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -5420,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5447,60 +5433,60 @@
         <v>7000</v>
       </c>
       <c r="T9" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="X9" t="s">
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="2"/>
       <c r="AJ9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>1</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>1</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="s">
         <v>80</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>1</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
-      </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-      <c r="BU9">
-        <v>1</v>
-      </c>
-      <c r="BV9">
-        <v>0</v>
-      </c>
-      <c r="BW9">
-        <v>0</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9">
-        <v>1</v>
-      </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>82</v>
       </c>
       <c r="CC9">
         <v>0</v>
@@ -5545,13 +5531,13 @@
         <v>21</v>
       </c>
       <c r="CQ9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CR9" t="s">
         <v>24</v>
       </c>
       <c r="CS9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="CT9" t="s">
         <v>24</v>
@@ -5566,19 +5552,19 @@
         <v>27</v>
       </c>
       <c r="CX9" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY9" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="CZ9" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="DA9" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="DC9" t="s">
         <v>1</v>
@@ -5611,23 +5597,23 @@
         <v>0</v>
       </c>
       <c r="DN9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>738</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="B10" t="s">
+        <v>757</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>1</v>
       </c>
       <c r="G10">
@@ -5643,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5670,7 +5656,7 @@
         <v>5667</v>
       </c>
       <c r="T10" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="U10">
         <v>4</v>
@@ -5707,136 +5693,136 @@
         <v>3</v>
       </c>
       <c r="AJ10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS10" t="s">
         <v>146</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AT10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU10" t="s">
         <v>147</v>
       </c>
-      <c r="AL10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="AV10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="s">
         <v>148</v>
       </c>
-      <c r="AN10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AX10" t="s">
         <v>149</v>
       </c>
-      <c r="AP10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="s">
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>150</v>
       </c>
-      <c r="AR10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="BA10" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>630</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>623</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>632</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>631</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>617</v>
+      </c>
+      <c r="BG10" t="s">
         <v>151</v>
       </c>
-      <c r="AT10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU10" t="s">
+      <c r="BH10" t="s">
         <v>152</v>
       </c>
-      <c r="AV10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW10" t="s">
+      <c r="BI10" t="s">
         <v>153</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="BJ10" t="s">
         <v>154</v>
       </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="s">
+      <c r="BK10" t="s">
+        <v>284</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>285</v>
+      </c>
+      <c r="BM10" t="s">
         <v>155</v>
       </c>
-      <c r="BA10" t="s">
-        <v>644</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>645</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>638</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>647</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>646</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>632</v>
-      </c>
-      <c r="BG10" t="s">
+      <c r="BN10" t="s">
         <v>156</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
+        <v>1</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>1</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>1</v>
+      </c>
+      <c r="BV10">
+        <v>1</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>1</v>
+      </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="s">
         <v>157</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>158</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>291</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO10">
-        <v>1</v>
-      </c>
-      <c r="BP10">
-        <v>1</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
-      <c r="BR10">
-        <v>1</v>
-      </c>
-      <c r="BS10">
-        <v>0</v>
-      </c>
-      <c r="BT10">
-        <v>1</v>
-      </c>
-      <c r="BU10">
-        <v>1</v>
-      </c>
-      <c r="BV10">
-        <v>1</v>
-      </c>
-      <c r="BW10">
-        <v>0</v>
-      </c>
-      <c r="BX10">
-        <v>1</v>
-      </c>
-      <c r="BY10">
-        <v>1</v>
-      </c>
-      <c r="BZ10">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>162</v>
       </c>
       <c r="CC10">
         <v>2</v>
@@ -5881,13 +5867,13 @@
         <v>21</v>
       </c>
       <c r="CQ10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="CR10" t="s">
         <v>24</v>
       </c>
       <c r="CS10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="CT10" t="s">
         <v>24</v>
@@ -5902,19 +5888,19 @@
         <v>27</v>
       </c>
       <c r="CX10" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY10" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ10" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA10" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="DC10" t="s">
         <v>1</v>
@@ -5950,23 +5936,23 @@
         <v>0</v>
       </c>
       <c r="DN10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>739</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B11" t="s">
+        <v>757</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>1</v>
       </c>
       <c r="G11">
@@ -5982,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -6009,7 +5995,7 @@
         <v>5602</v>
       </c>
       <c r="T11" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="U11">
         <v>8</v>
@@ -6046,136 +6032,136 @@
         <v>3</v>
       </c>
       <c r="AJ11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="s">
         <v>167</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AT11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU11" t="s">
         <v>168</v>
       </c>
-      <c r="AL11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AV11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="s">
         <v>169</v>
       </c>
-      <c r="AN11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="s">
+      <c r="AX11" t="s">
         <v>170</v>
       </c>
-      <c r="AP11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ11" t="s">
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>171</v>
       </c>
-      <c r="AR11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="BA11" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>617</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>631</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>632</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>630</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>623</v>
+      </c>
+      <c r="BG11" t="s">
         <v>172</v>
       </c>
-      <c r="AT11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU11" t="s">
+      <c r="BH11" t="s">
         <v>173</v>
       </c>
-      <c r="AV11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW11" t="s">
+      <c r="BI11" t="s">
         <v>174</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="BJ11" t="s">
+        <v>282</v>
+      </c>
+      <c r="BK11" t="s">
         <v>175</v>
       </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
-      <c r="AZ11" t="s">
+      <c r="BL11" t="s">
         <v>176</v>
       </c>
-      <c r="BA11" t="s">
-        <v>644</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>632</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>646</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>647</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>645</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>638</v>
-      </c>
-      <c r="BG11" t="s">
+      <c r="BM11" t="s">
+        <v>288</v>
+      </c>
+      <c r="BN11" t="s">
         <v>177</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BV11">
+        <v>1</v>
+      </c>
+      <c r="BW11">
+        <v>1</v>
+      </c>
+      <c r="BX11">
+        <v>1</v>
+      </c>
+      <c r="BY11">
+        <v>1</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="s">
         <v>178</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>179</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>288</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>180</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>294</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0</v>
-      </c>
-      <c r="BR11">
-        <v>0</v>
-      </c>
-      <c r="BS11">
-        <v>0</v>
-      </c>
-      <c r="BT11">
-        <v>0</v>
-      </c>
-      <c r="BU11">
-        <v>1</v>
-      </c>
-      <c r="BV11">
-        <v>1</v>
-      </c>
-      <c r="BW11">
-        <v>1</v>
-      </c>
-      <c r="BX11">
-        <v>1</v>
-      </c>
-      <c r="BY11">
-        <v>1</v>
-      </c>
-      <c r="BZ11">
-        <v>0</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>183</v>
       </c>
       <c r="CC11">
         <v>1</v>
@@ -6220,13 +6206,13 @@
         <v>21</v>
       </c>
       <c r="CQ11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="CR11" t="s">
         <v>26</v>
       </c>
       <c r="CS11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="CT11" t="s">
         <v>26</v>
@@ -6241,19 +6227,19 @@
         <v>28</v>
       </c>
       <c r="CX11" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY11" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ11" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA11" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="DC11" t="s">
         <v>1</v>
@@ -6289,23 +6275,23 @@
         <v>0</v>
       </c>
       <c r="DN11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>740</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B12" t="s">
+        <v>757</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>1</v>
       </c>
       <c r="G12">
@@ -6321,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -6348,7 +6334,7 @@
         <v>5680</v>
       </c>
       <c r="T12" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="U12">
         <v>12</v>
@@ -6388,133 +6374,133 @@
         <v>36</v>
       </c>
       <c r="AK12" t="s">
+        <v>764</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="s">
         <v>50</v>
       </c>
-      <c r="AL12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="s">
         <v>51</v>
       </c>
-      <c r="AN12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>52</v>
       </c>
-      <c r="AP12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="s">
         <v>53</v>
       </c>
-      <c r="AR12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU12" t="s">
         <v>54</v>
       </c>
-      <c r="AT12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="s">
         <v>55</v>
       </c>
-      <c r="AV12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>56</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>630</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>632</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>623</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>617</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>631</v>
+      </c>
+      <c r="BG12" t="s">
         <v>57</v>
       </c>
-      <c r="AY12">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>644</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>645</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>647</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>638</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>632</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>646</v>
-      </c>
-      <c r="BG12" t="s">
+      <c r="BH12" t="s">
         <v>58</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>59</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
+        <v>283</v>
+      </c>
+      <c r="BK12" t="s">
         <v>60</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>289</v>
-      </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
         <v>61</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BM12" t="s">
         <v>62</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BN12" t="s">
         <v>63</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>1</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>1</v>
+      </c>
+      <c r="BU12">
+        <v>1</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>1</v>
+      </c>
+      <c r="BY12">
+        <v>1</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="s">
         <v>64</v>
-      </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12">
-        <v>1</v>
-      </c>
-      <c r="BS12">
-        <v>0</v>
-      </c>
-      <c r="BT12">
-        <v>1</v>
-      </c>
-      <c r="BU12">
-        <v>1</v>
-      </c>
-      <c r="BV12">
-        <v>0</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>1</v>
-      </c>
-      <c r="BY12">
-        <v>1</v>
-      </c>
-      <c r="BZ12">
-        <v>0</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>65</v>
       </c>
       <c r="CC12">
         <v>1</v>
@@ -6559,13 +6545,13 @@
         <v>23</v>
       </c>
       <c r="CQ12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CR12" t="s">
         <v>26</v>
       </c>
       <c r="CS12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CT12" t="s">
         <v>26</v>
@@ -6580,19 +6566,19 @@
         <v>28</v>
       </c>
       <c r="CX12" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY12" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ12" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA12" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="DC12" t="s">
         <v>1</v>
@@ -6628,23 +6614,23 @@
         <v>0</v>
       </c>
       <c r="DN12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>741</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B13" t="s">
+        <v>757</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>1</v>
       </c>
       <c r="G13">
@@ -6660,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6687,7 +6673,7 @@
         <v>5000</v>
       </c>
       <c r="T13" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="X13" t="s">
         <v>3</v>
@@ -6703,58 +6689,58 @@
         <v>1</v>
       </c>
       <c r="AI13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AJ13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK13" t="s">
         <v>43</v>
       </c>
       <c r="BN13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
+      </c>
+      <c r="BR13">
+        <v>1</v>
+      </c>
+      <c r="BS13">
+        <v>1</v>
+      </c>
+      <c r="BT13">
+        <v>1</v>
+      </c>
+      <c r="BU13">
+        <v>1</v>
+      </c>
+      <c r="BV13">
+        <v>1</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>1</v>
+      </c>
+      <c r="BY13">
+        <v>1</v>
+      </c>
+      <c r="BZ13">
+        <v>1</v>
+      </c>
+      <c r="CA13" t="s">
         <v>71</v>
       </c>
-      <c r="BO13">
-        <v>1</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>1</v>
-      </c>
-      <c r="BR13">
-        <v>1</v>
-      </c>
-      <c r="BS13">
-        <v>1</v>
-      </c>
-      <c r="BT13">
-        <v>1</v>
-      </c>
-      <c r="BU13">
-        <v>1</v>
-      </c>
-      <c r="BV13">
-        <v>1</v>
-      </c>
-      <c r="BW13">
-        <v>0</v>
-      </c>
-      <c r="BX13">
-        <v>1</v>
-      </c>
-      <c r="BY13">
-        <v>1</v>
-      </c>
-      <c r="BZ13">
-        <v>1</v>
-      </c>
-      <c r="CA13" t="s">
+      <c r="CB13" t="s">
         <v>72</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>73</v>
       </c>
       <c r="CC13">
         <v>2</v>
@@ -6799,13 +6785,13 @@
         <v>23</v>
       </c>
       <c r="CQ13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CR13" t="s">
         <v>27</v>
       </c>
       <c r="CS13" t="s">
-        <v>75</v>
+        <v>760</v>
       </c>
       <c r="CT13" t="s">
         <v>27</v>
@@ -6820,19 +6806,19 @@
         <v>28</v>
       </c>
       <c r="CX13" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="CY13" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ13" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="DA13" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="DC13" t="s">
         <v>1</v>
@@ -6868,30 +6854,30 @@
         <v>0</v>
       </c>
       <c r="DN13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>742</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B14" t="s">
+        <v>757</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>1</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6900,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -6927,7 +6913,7 @@
         <v>5602</v>
       </c>
       <c r="T14" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="U14">
         <v>13</v>
@@ -6963,133 +6949,133 @@
         <v>3</v>
       </c>
       <c r="AJ14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>231</v>
+      </c>
+      <c r="AW14" t="s">
         <v>232</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AX14" t="s">
         <v>233</v>
       </c>
-      <c r="AL14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM14" t="s">
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>234</v>
       </c>
-      <c r="AN14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="s">
+      <c r="BA14" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>617</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>623</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>631</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>630</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>632</v>
+      </c>
+      <c r="BG14" t="s">
         <v>235</v>
       </c>
-      <c r="AP14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS14" t="s">
+      <c r="BH14" t="s">
         <v>236</v>
       </c>
-      <c r="AT14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU14" t="s">
+      <c r="BI14" t="s">
         <v>237</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="BJ14" t="s">
         <v>238</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="BK14" t="s">
         <v>239</v>
       </c>
-      <c r="AY14">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="s">
+      <c r="BL14" t="s">
         <v>240</v>
       </c>
-      <c r="BA14" t="s">
-        <v>644</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>632</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>638</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>646</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>645</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>647</v>
-      </c>
-      <c r="BG14" t="s">
+      <c r="BM14" t="s">
         <v>241</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BN14" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
+        <v>1</v>
+      </c>
+      <c r="BQ14">
+        <v>1</v>
+      </c>
+      <c r="BR14">
+        <v>1</v>
+      </c>
+      <c r="BS14">
+        <v>1</v>
+      </c>
+      <c r="BT14">
+        <v>1</v>
+      </c>
+      <c r="BU14">
+        <v>1</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>1</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="s">
         <v>242</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>243</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>246</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>247</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO14">
-        <v>1</v>
-      </c>
-      <c r="BP14">
-        <v>1</v>
-      </c>
-      <c r="BQ14">
-        <v>1</v>
-      </c>
-      <c r="BR14">
-        <v>1</v>
-      </c>
-      <c r="BS14">
-        <v>1</v>
-      </c>
-      <c r="BT14">
-        <v>1</v>
-      </c>
-      <c r="BU14">
-        <v>1</v>
-      </c>
-      <c r="BV14">
-        <v>0</v>
-      </c>
-      <c r="BW14">
-        <v>0</v>
-      </c>
-      <c r="BX14">
-        <v>0</v>
-      </c>
-      <c r="BY14">
-        <v>1</v>
-      </c>
-      <c r="BZ14">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>248</v>
       </c>
       <c r="CC14">
         <v>2</v>
@@ -7134,13 +7120,13 @@
         <v>46</v>
       </c>
       <c r="CQ14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="CR14" t="s">
         <v>26</v>
       </c>
       <c r="CS14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="CT14" t="s">
         <v>26</v>
@@ -7155,19 +7141,19 @@
         <v>28</v>
       </c>
       <c r="CX14" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY14" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ14" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA14" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="DC14" t="s">
         <v>3</v>
@@ -7175,18 +7161,18 @@
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>743</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>1</v>
       </c>
       <c r="G15">
@@ -7202,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -7229,7 +7215,7 @@
         <v>7020</v>
       </c>
       <c r="T15" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U15">
         <v>106</v>
@@ -7272,139 +7258,139 @@
         <v>1</v>
       </c>
       <c r="AI15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AJ15" t="s">
         <v>36</v>
       </c>
       <c r="AK15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU15" t="s">
         <v>188</v>
       </c>
-      <c r="AL15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM15" t="s">
+      <c r="AV15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="s">
         <v>189</v>
       </c>
-      <c r="AN15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="s">
+      <c r="AX15" t="s">
         <v>190</v>
       </c>
-      <c r="AP15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ15" t="s">
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>191</v>
       </c>
-      <c r="AR15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS15" t="s">
+      <c r="BA15" t="s">
+        <v>630</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>629</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>623</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>617</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>631</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>632</v>
+      </c>
+      <c r="BG15" t="s">
         <v>192</v>
       </c>
-      <c r="AT15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU15" t="s">
+      <c r="BH15" t="s">
         <v>193</v>
       </c>
-      <c r="AV15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW15" t="s">
+      <c r="BI15" t="s">
         <v>194</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="BJ15" t="s">
         <v>195</v>
       </c>
-      <c r="AY15">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="s">
+      <c r="BK15" t="s">
         <v>196</v>
       </c>
-      <c r="BA15" t="s">
-        <v>645</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>644</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>638</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>632</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>646</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>647</v>
-      </c>
-      <c r="BG15" t="s">
+      <c r="BL15" t="s">
         <v>197</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BM15" t="s">
         <v>198</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BN15" t="s">
         <v>199</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>1</v>
+      </c>
+      <c r="BS15">
+        <v>1</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>1</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="s">
         <v>200</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>201</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>202</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>203</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>204</v>
-      </c>
-      <c r="BO15">
-        <v>1</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>0</v>
-      </c>
-      <c r="BR15">
-        <v>1</v>
-      </c>
-      <c r="BS15">
-        <v>1</v>
-      </c>
-      <c r="BT15">
-        <v>0</v>
-      </c>
-      <c r="BU15">
-        <v>0</v>
-      </c>
-      <c r="BV15">
-        <v>0</v>
-      </c>
-      <c r="BW15">
-        <v>0</v>
-      </c>
-      <c r="BX15">
-        <v>0</v>
-      </c>
-      <c r="BY15">
-        <v>1</v>
-      </c>
-      <c r="BZ15">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>205</v>
       </c>
       <c r="CC15">
         <v>1</v>
@@ -7449,13 +7435,13 @@
         <v>22</v>
       </c>
       <c r="CQ15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="CR15" t="s">
         <v>26</v>
       </c>
       <c r="CS15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="CT15" t="s">
         <v>26</v>
@@ -7470,19 +7456,19 @@
         <v>28</v>
       </c>
       <c r="CX15" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="CY15" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CZ15" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="DA15" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="DC15" t="s">
         <v>1</v>
@@ -7518,30 +7504,30 @@
         <v>0</v>
       </c>
       <c r="DN15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>744</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="B16" t="s">
+        <v>757</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>1</v>
       </c>
       <c r="G16">
         <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -7550,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -7577,7 +7563,7 @@
         <v>7020</v>
       </c>
       <c r="T16" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U16">
         <v>120</v>
@@ -7616,133 +7602,133 @@
         <v>1</v>
       </c>
       <c r="AI16" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="AJ16" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>765</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>369</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>771</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>372</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>374</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>630</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>629</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>623</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>631</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>632</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>375</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>376</v>
+      </c>
+      <c r="BI16" t="s">
         <v>377</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="BJ16" t="s">
         <v>378</v>
       </c>
-      <c r="AL16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM16" t="s">
+      <c r="BK16" t="s">
         <v>379</v>
       </c>
-      <c r="AN16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO16" t="s">
+      <c r="BL16" t="s">
         <v>380</v>
       </c>
-      <c r="AP16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ16" t="s">
+      <c r="BM16" t="s">
         <v>381</v>
       </c>
-      <c r="AR16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS16" t="s">
+      <c r="BN16" t="s">
         <v>382</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
+        <v>1</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>1</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>1</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>1</v>
+      </c>
+      <c r="BY16">
+        <v>1</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="s">
         <v>383</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>384</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>385</v>
-      </c>
-      <c r="AY16">
-        <v>1</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>386</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>645</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>644</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>632</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>638</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>646</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>647</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>387</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>388</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>389</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>390</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>391</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>392</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>393</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>394</v>
-      </c>
-      <c r="BO16">
-        <v>1</v>
-      </c>
-      <c r="BP16">
-        <v>1</v>
-      </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16">
-        <v>1</v>
-      </c>
-      <c r="BS16">
-        <v>0</v>
-      </c>
-      <c r="BT16">
-        <v>0</v>
-      </c>
-      <c r="BU16">
-        <v>1</v>
-      </c>
-      <c r="BV16">
-        <v>0</v>
-      </c>
-      <c r="BW16">
-        <v>0</v>
-      </c>
-      <c r="BX16">
-        <v>1</v>
-      </c>
-      <c r="BY16">
-        <v>1</v>
-      </c>
-      <c r="BZ16">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>395</v>
       </c>
       <c r="CC16">
         <v>1</v>
@@ -7787,13 +7773,13 @@
         <v>23</v>
       </c>
       <c r="CQ16" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="CR16" t="s">
         <v>27</v>
       </c>
       <c r="CS16" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="CT16" t="s">
         <v>27</v>
@@ -7808,19 +7794,19 @@
         <v>28</v>
       </c>
       <c r="CX16" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY16" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ16" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA16" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB16" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="DC16" t="s">
         <v>1</v>
@@ -7850,30 +7836,30 @@
         <v>1</v>
       </c>
       <c r="DN16" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>745</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B17" t="s">
+        <v>757</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>1</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -7882,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -7909,7 +7895,7 @@
         <v>5680</v>
       </c>
       <c r="T17" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="U17">
         <v>7</v>
@@ -7951,136 +7937,136 @@
         <v>3</v>
       </c>
       <c r="AI17" t="s">
+        <v>433</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>769</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>436</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>437</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>438</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>439</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>440</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>441</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>617</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>629</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>630</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>623</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>632</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>631</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>442</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>443</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>444</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>445</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>446</v>
+      </c>
+      <c r="BL17" t="s">
         <v>447</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="BM17" t="s">
         <v>448</v>
       </c>
-      <c r="AL17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM17" t="s">
+      <c r="BN17" t="s">
         <v>449</v>
       </c>
-      <c r="AN17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="s">
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>1</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>1</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>1</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="s">
         <v>450</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>451</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>452</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>453</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>454</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>455</v>
-      </c>
-      <c r="AY17">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>456</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>632</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>644</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>645</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>638</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>647</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>646</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>457</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>458</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>459</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>460</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>461</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>462</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>463</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>464</v>
-      </c>
-      <c r="BO17">
-        <v>1</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>1</v>
-      </c>
-      <c r="BT17">
-        <v>0</v>
-      </c>
-      <c r="BU17">
-        <v>1</v>
-      </c>
-      <c r="BV17">
-        <v>0</v>
-      </c>
-      <c r="BW17">
-        <v>0</v>
-      </c>
-      <c r="BX17">
-        <v>0</v>
-      </c>
-      <c r="BY17">
-        <v>1</v>
-      </c>
-      <c r="BZ17">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="s">
-        <v>465</v>
       </c>
       <c r="CC17">
         <v>1</v>
@@ -8125,13 +8111,13 @@
         <v>23</v>
       </c>
       <c r="CQ17" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="CR17" t="s">
         <v>26</v>
       </c>
       <c r="CS17" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="CT17" t="s">
         <v>26</v>
@@ -8146,48 +8132,48 @@
         <v>28</v>
       </c>
       <c r="CX17" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY17" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ17" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA17" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="DC17" t="s">
         <v>3</v>
       </c>
       <c r="DN17" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>746</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="B18" t="s">
+        <v>758</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>1</v>
       </c>
       <c r="G18">
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -8196,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -8223,7 +8209,7 @@
         <v>7190</v>
       </c>
       <c r="T18" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U18">
         <v>8</v>
@@ -8238,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="Z18" s="1">
         <v>480000</v>
@@ -8263,88 +8249,88 @@
         <v>1</v>
       </c>
       <c r="AI18" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="AK18" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="AL18" t="s">
         <v>1</v>
       </c>
       <c r="AM18" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="AN18" t="s">
         <v>1</v>
       </c>
       <c r="AO18" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="AP18" t="s">
         <v>1</v>
       </c>
       <c r="AQ18" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="AR18" t="s">
         <v>1</v>
       </c>
       <c r="AS18" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="AT18" t="s">
         <v>1</v>
       </c>
       <c r="AU18" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="AW18" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="AY18">
         <v>0</v>
       </c>
       <c r="BA18" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="BB18" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="BC18" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="BD18" t="s">
+        <v>617</v>
+      </c>
+      <c r="BE18" t="s">
         <v>632</v>
       </c>
-      <c r="BE18" t="s">
-        <v>647</v>
-      </c>
       <c r="BF18" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="BG18" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="BH18" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="BI18" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="BJ18" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="BK18" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="BL18" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="BM18" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="BN18" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="BO18">
         <v>1</v>
@@ -8383,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="CB18" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="CC18">
         <v>1</v>
@@ -8428,13 +8414,13 @@
         <v>23</v>
       </c>
       <c r="CQ18" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="CR18" t="s">
         <v>27</v>
       </c>
       <c r="CS18" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="CT18" t="s">
         <v>27</v>
@@ -8449,19 +8435,19 @@
         <v>28</v>
       </c>
       <c r="CX18" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="CY18" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CZ18" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA18" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="DB18" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="DC18" t="s">
         <v>1</v>
@@ -8491,30 +8477,30 @@
         <v>20</v>
       </c>
       <c r="DN18" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>747</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B19" t="s">
+        <v>757</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>1</v>
       </c>
       <c r="G19">
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -8523,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -8550,7 +8536,7 @@
         <v>7216</v>
       </c>
       <c r="T19" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U19">
         <v>11</v>
@@ -8587,136 +8573,136 @@
         <v>3</v>
       </c>
       <c r="AI19" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AK19" t="s">
-        <v>349</v>
+        <v>766</v>
       </c>
       <c r="AL19" t="s">
         <v>1</v>
       </c>
       <c r="AM19" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AN19" t="s">
         <v>1</v>
       </c>
       <c r="AO19" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AP19" t="s">
         <v>1</v>
       </c>
       <c r="AQ19" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AR19" t="s">
         <v>1</v>
       </c>
       <c r="AS19" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AT19" t="s">
         <v>1</v>
       </c>
       <c r="AU19" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AV19" t="s">
         <v>3</v>
       </c>
       <c r="AW19" t="s">
+        <v>345</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>346</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>630</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>629</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>623</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>631</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>632</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>347</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>349</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>350</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>351</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>352</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>353</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>354</v>
+      </c>
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BQ19">
+        <v>1</v>
+      </c>
+      <c r="BR19">
+        <v>1</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>1</v>
+      </c>
+      <c r="BV19">
+        <v>1</v>
+      </c>
+      <c r="BW19">
+        <v>1</v>
+      </c>
+      <c r="BX19">
+        <v>1</v>
+      </c>
+      <c r="BY19">
+        <v>1</v>
+      </c>
+      <c r="BZ19">
+        <v>1</v>
+      </c>
+      <c r="CA19" t="s">
         <v>355</v>
       </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="s">
+      <c r="CB19" t="s">
         <v>356</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>645</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>644</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>632</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>638</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>646</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>647</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>357</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>358</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>359</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>360</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>361</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>362</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>363</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>364</v>
-      </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
-        <v>1</v>
-      </c>
-      <c r="BR19">
-        <v>1</v>
-      </c>
-      <c r="BS19">
-        <v>0</v>
-      </c>
-      <c r="BT19">
-        <v>0</v>
-      </c>
-      <c r="BU19">
-        <v>1</v>
-      </c>
-      <c r="BV19">
-        <v>1</v>
-      </c>
-      <c r="BW19">
-        <v>1</v>
-      </c>
-      <c r="BX19">
-        <v>1</v>
-      </c>
-      <c r="BY19">
-        <v>1</v>
-      </c>
-      <c r="BZ19">
-        <v>1</v>
-      </c>
-      <c r="CA19" t="s">
-        <v>365</v>
-      </c>
-      <c r="CB19" t="s">
-        <v>366</v>
       </c>
       <c r="CC19">
         <v>2</v>
@@ -8761,13 +8747,13 @@
         <v>23</v>
       </c>
       <c r="CQ19" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="CR19" t="s">
         <v>26</v>
       </c>
       <c r="CS19" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="CT19" t="s">
         <v>26</v>
@@ -8782,19 +8768,19 @@
         <v>28</v>
       </c>
       <c r="CX19" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY19" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="CZ19" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="DA19" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB19" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="DC19" t="s">
         <v>1</v>
@@ -8818,30 +8804,30 @@
         <v>1</v>
       </c>
       <c r="DN19" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>748</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B20" t="s">
+        <v>757</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>1</v>
       </c>
       <c r="G20">
         <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -8850,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -8877,7 +8863,7 @@
         <v>5680</v>
       </c>
       <c r="T20" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="U20">
         <v>5</v>
@@ -8914,139 +8900,139 @@
         <v>3</v>
       </c>
       <c r="AI20" t="s">
-        <v>324</v>
+        <v>759</v>
       </c>
       <c r="AK20" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AL20" t="s">
         <v>1</v>
       </c>
       <c r="AM20" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AN20" t="s">
         <v>1</v>
       </c>
       <c r="AO20" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AP20" t="s">
         <v>1</v>
       </c>
       <c r="AQ20" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AR20" t="s">
         <v>1</v>
       </c>
       <c r="AS20" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AT20" t="s">
         <v>1</v>
       </c>
       <c r="AU20" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AV20" t="s">
         <v>3</v>
       </c>
       <c r="AW20" t="s">
+        <v>323</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>325</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>617</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>630</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>631</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>629</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>623</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>632</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>327</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>328</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL20" t="s">
         <v>331</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="BM20" t="s">
+        <v>767</v>
+      </c>
+      <c r="BN20" t="s">
         <v>332</v>
       </c>
-      <c r="AY20">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="s">
+      <c r="BO20">
+        <v>1</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>1</v>
+      </c>
+      <c r="BS20">
+        <v>1</v>
+      </c>
+      <c r="BT20">
+        <v>1</v>
+      </c>
+      <c r="BU20">
+        <v>1</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>1</v>
+      </c>
+      <c r="BY20">
+        <v>1</v>
+      </c>
+      <c r="BZ20">
+        <v>1</v>
+      </c>
+      <c r="CA20" t="s">
         <v>333</v>
       </c>
-      <c r="BA20" t="s">
-        <v>632</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>645</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>646</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>644</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>638</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>647</v>
-      </c>
-      <c r="BG20" t="s">
+      <c r="CB20" t="s">
         <v>334</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>335</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>336</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>337</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>338</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>339</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>340</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>341</v>
-      </c>
-      <c r="BO20">
-        <v>1</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20">
-        <v>1</v>
-      </c>
-      <c r="BS20">
-        <v>1</v>
-      </c>
-      <c r="BT20">
-        <v>1</v>
-      </c>
-      <c r="BU20">
-        <v>1</v>
-      </c>
-      <c r="BV20">
-        <v>0</v>
-      </c>
-      <c r="BW20">
-        <v>0</v>
-      </c>
-      <c r="BX20">
-        <v>1</v>
-      </c>
-      <c r="BY20">
-        <v>1</v>
-      </c>
-      <c r="BZ20">
-        <v>1</v>
-      </c>
-      <c r="CA20" t="s">
-        <v>342</v>
-      </c>
-      <c r="CB20" t="s">
-        <v>343</v>
       </c>
       <c r="CC20">
         <v>1</v>
@@ -9091,13 +9077,13 @@
         <v>21</v>
       </c>
       <c r="CQ20" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="CR20" t="s">
         <v>26</v>
       </c>
       <c r="CS20" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="CT20" t="s">
         <v>26</v>
@@ -9112,19 +9098,19 @@
         <v>28</v>
       </c>
       <c r="CX20" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY20" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ20" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA20" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB20" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="DC20" t="s">
         <v>1</v>
@@ -9148,30 +9134,30 @@
         <v>1</v>
       </c>
       <c r="DN20" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>749</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="B21" t="s">
+        <v>757</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>1</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -9180,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -9207,7 +9193,7 @@
         <v>5680</v>
       </c>
       <c r="T21" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="U21">
         <v>5</v>
@@ -9244,136 +9230,136 @@
         <v>3</v>
       </c>
       <c r="AI21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>772</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>292</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="s">
         <v>295</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AX21" t="s">
         <v>296</v>
       </c>
-      <c r="AL21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM21" t="s">
+      <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="s">
         <v>297</v>
       </c>
-      <c r="AN21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO21" t="s">
+      <c r="BA21" t="s">
+        <v>617</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>629</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>630</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>623</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>632</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>631</v>
+      </c>
+      <c r="BG21" t="s">
         <v>298</v>
       </c>
-      <c r="AP21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ21" t="s">
+      <c r="BH21" t="s">
         <v>299</v>
       </c>
-      <c r="AR21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS21" t="s">
+      <c r="BI21" t="s">
         <v>300</v>
       </c>
-      <c r="AT21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU21" t="s">
+      <c r="BJ21" t="s">
         <v>301</v>
       </c>
-      <c r="AV21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="s">
+      <c r="BK21" t="s">
         <v>302</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="BL21" t="s">
         <v>303</v>
       </c>
-      <c r="AY21">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="s">
+      <c r="BM21" t="s">
         <v>304</v>
       </c>
-      <c r="BA21" t="s">
-        <v>632</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>644</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>645</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>638</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>647</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>646</v>
-      </c>
-      <c r="BG21" t="s">
+      <c r="BN21" t="s">
         <v>305</v>
       </c>
-      <c r="BH21" t="s">
+      <c r="BO21">
+        <v>1</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>1</v>
+      </c>
+      <c r="BS21">
+        <v>1</v>
+      </c>
+      <c r="BT21">
+        <v>1</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>1</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
+        <v>1</v>
+      </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="s">
         <v>306</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>307</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>308</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>309</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>310</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>311</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>312</v>
-      </c>
-      <c r="BO21">
-        <v>1</v>
-      </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
-      <c r="BR21">
-        <v>1</v>
-      </c>
-      <c r="BS21">
-        <v>1</v>
-      </c>
-      <c r="BT21">
-        <v>1</v>
-      </c>
-      <c r="BU21">
-        <v>0</v>
-      </c>
-      <c r="BV21">
-        <v>1</v>
-      </c>
-      <c r="BW21">
-        <v>0</v>
-      </c>
-      <c r="BX21">
-        <v>0</v>
-      </c>
-      <c r="BY21">
-        <v>1</v>
-      </c>
-      <c r="BZ21">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="s">
-        <v>313</v>
       </c>
       <c r="CC21">
         <v>1</v>
@@ -9418,13 +9404,13 @@
         <v>23</v>
       </c>
       <c r="CQ21" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="CR21" t="s">
         <v>26</v>
       </c>
       <c r="CS21" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="CT21" t="s">
         <v>26</v>
@@ -9439,19 +9425,19 @@
         <v>28</v>
       </c>
       <c r="CX21" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY21" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ21" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA21" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB21" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="DC21" t="s">
         <v>1</v>
@@ -9481,30 +9467,30 @@
         <v>3</v>
       </c>
       <c r="DN21" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>750</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="B22" t="s">
+        <v>757</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>1</v>
       </c>
       <c r="G22">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -9513,7 +9499,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -9540,7 +9526,7 @@
         <v>7215</v>
       </c>
       <c r="T22" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U22">
         <v>25</v>
@@ -9552,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="Y22" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Z22" s="1">
         <v>900000</v>
@@ -9580,91 +9566,91 @@
         <v>3</v>
       </c>
       <c r="AK22" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="AL22" t="s">
         <v>1</v>
       </c>
       <c r="AM22" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="AN22" t="s">
         <v>1</v>
       </c>
       <c r="AO22" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="AP22" t="s">
         <v>1</v>
       </c>
       <c r="AQ22" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AR22" t="s">
         <v>1</v>
       </c>
       <c r="AS22" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="AT22" t="s">
         <v>1</v>
       </c>
       <c r="AU22" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="AV22" t="s">
         <v>3</v>
       </c>
       <c r="AW22" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="AY22">
         <v>0</v>
       </c>
       <c r="AZ22" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="BA22" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="BB22" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="BC22" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>623</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>631</v>
+      </c>
+      <c r="BF22" t="s">
         <v>632</v>
       </c>
-      <c r="BD22" t="s">
-        <v>638</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>646</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>647</v>
-      </c>
       <c r="BG22" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="BH22" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="BI22" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="BJ22" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="BK22" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="BL22" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="BM22" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="BN22" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="BO22">
         <v>1</v>
@@ -9703,10 +9689,10 @@
         <v>1</v>
       </c>
       <c r="CA22" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="CB22" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="CC22">
         <v>2</v>
@@ -9751,13 +9737,13 @@
         <v>23</v>
       </c>
       <c r="CQ22" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="CR22" t="s">
         <v>26</v>
       </c>
       <c r="CS22" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="CT22" t="s">
         <v>26</v>
@@ -9772,19 +9758,19 @@
         <v>28</v>
       </c>
       <c r="CX22" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY22" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ22" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA22" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB22" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="DC22" t="s">
         <v>1</v>
@@ -9814,30 +9800,30 @@
         <v>3</v>
       </c>
       <c r="DN22" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>751</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B23" t="s">
+        <v>757</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>1</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -9846,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -9870,12 +9856,12 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="2"/>
       <c r="BN23" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="BO23">
         <v>1</v>
@@ -9914,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="CB23" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="CC23">
         <v>1</v>
@@ -9959,13 +9945,13 @@
         <v>22</v>
       </c>
       <c r="CQ23" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="CR23" t="s">
         <v>28</v>
       </c>
       <c r="CS23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="CT23" t="s">
         <v>28</v>
@@ -9980,48 +9966,48 @@
         <v>27</v>
       </c>
       <c r="CX23" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CY23" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CZ23" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA23" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB23" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="DC23" t="s">
         <v>3</v>
       </c>
       <c r="DN23" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>752</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B24" t="s">
+        <v>758</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>1</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -10030,7 +10016,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -10054,12 +10040,12 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="Z24" s="3"/>
       <c r="AA24" s="2"/>
       <c r="BN24" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="BO24">
         <v>1</v>
@@ -10098,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="CB24" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="CC24">
         <v>2</v>
@@ -10143,13 +10129,13 @@
         <v>23</v>
       </c>
       <c r="CQ24" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="CR24" t="s">
         <v>26</v>
       </c>
       <c r="CS24" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="CT24" t="s">
         <v>26</v>
@@ -10164,19 +10150,19 @@
         <v>28</v>
       </c>
       <c r="CX24" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="CY24" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ24" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA24" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="DB24" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="DC24" t="s">
         <v>1</v>
@@ -10185,30 +10171,30 @@
         <v>1</v>
       </c>
       <c r="DN24" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>753</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B25" t="s">
+        <v>758</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>1</v>
       </c>
       <c r="G25">
         <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -10217,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -10244,7 +10230,7 @@
         <v>5607</v>
       </c>
       <c r="T25" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="U25">
         <v>12</v>
@@ -10259,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="Y25" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="Z25" s="3">
         <v>150000000</v>
@@ -10283,133 +10269,133 @@
         <v>1</v>
       </c>
       <c r="AI25" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>393</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>394</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>396</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>398</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>399</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>631</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>617</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>630</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>629</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>623</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>632</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>400</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>401</v>
+      </c>
+      <c r="BI25" t="s">
         <v>402</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="BJ25" t="s">
         <v>403</v>
       </c>
-      <c r="AL25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM25" t="s">
+      <c r="BK25" t="s">
         <v>404</v>
       </c>
-      <c r="AN25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO25" t="s">
+      <c r="BM25" t="s">
         <v>405</v>
       </c>
-      <c r="AP25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="s">
+      <c r="BN25" t="s">
         <v>406</v>
       </c>
-      <c r="AR25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS25" t="s">
+      <c r="BO25">
+        <v>1</v>
+      </c>
+      <c r="BP25">
+        <v>1</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>1</v>
+      </c>
+      <c r="BS25">
+        <v>1</v>
+      </c>
+      <c r="BT25">
+        <v>1</v>
+      </c>
+      <c r="BU25">
+        <v>1</v>
+      </c>
+      <c r="BV25">
+        <v>1</v>
+      </c>
+      <c r="BW25">
+        <v>1</v>
+      </c>
+      <c r="BX25">
+        <v>1</v>
+      </c>
+      <c r="BY25">
+        <v>1</v>
+      </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="s">
         <v>407</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>408</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>409</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>410</v>
-      </c>
-      <c r="AY25">
-        <v>1</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>411</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>646</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>632</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>645</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>644</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>638</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>647</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>412</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>413</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>414</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>415</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>416</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>417</v>
-      </c>
-      <c r="BN25" t="s">
-        <v>418</v>
-      </c>
-      <c r="BO25">
-        <v>1</v>
-      </c>
-      <c r="BP25">
-        <v>1</v>
-      </c>
-      <c r="BQ25">
-        <v>0</v>
-      </c>
-      <c r="BR25">
-        <v>1</v>
-      </c>
-      <c r="BS25">
-        <v>1</v>
-      </c>
-      <c r="BT25">
-        <v>1</v>
-      </c>
-      <c r="BU25">
-        <v>1</v>
-      </c>
-      <c r="BV25">
-        <v>1</v>
-      </c>
-      <c r="BW25">
-        <v>1</v>
-      </c>
-      <c r="BX25">
-        <v>1</v>
-      </c>
-      <c r="BY25">
-        <v>1</v>
-      </c>
-      <c r="BZ25">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="s">
-        <v>419</v>
       </c>
       <c r="CC25">
         <v>2</v>
@@ -10454,13 +10440,13 @@
         <v>23</v>
       </c>
       <c r="CQ25" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="CR25" t="s">
         <v>26</v>
       </c>
       <c r="CS25" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="CT25" t="s">
         <v>26</v>
@@ -10475,19 +10461,19 @@
         <v>27</v>
       </c>
       <c r="CX25" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY25" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ25" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA25" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB25" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="DC25" t="s">
         <v>1</v>
@@ -10499,23 +10485,23 @@
         <v>100</v>
       </c>
       <c r="DN25" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>754</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B26" t="s">
+        <v>757</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
         <v>1</v>
       </c>
       <c r="G26">
@@ -10531,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -10558,7 +10544,7 @@
         <v>5607</v>
       </c>
       <c r="T26" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -10598,133 +10584,133 @@
         <v>3</v>
       </c>
       <c r="AK26" t="s">
+        <v>768</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>413</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>415</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>416</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>417</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>418</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>419</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>617</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>623</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>631</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>629</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>630</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>632</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>420</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>421</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>422</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>423</v>
+      </c>
+      <c r="BK26" t="s">
         <v>424</v>
       </c>
-      <c r="AL26" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM26" t="s">
+      <c r="BL26" t="s">
         <v>425</v>
       </c>
-      <c r="AN26" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO26" t="s">
+      <c r="BM26" t="s">
         <v>426</v>
       </c>
-      <c r="AP26" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="s">
+      <c r="BN26" t="s">
         <v>427</v>
       </c>
-      <c r="AR26" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS26" t="s">
+      <c r="BO26">
+        <v>1</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26">
+        <v>1</v>
+      </c>
+      <c r="BS26">
+        <v>1</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <v>1</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <v>0</v>
+      </c>
+      <c r="BY26">
+        <v>1</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="s">
         <v>428</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>429</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>430</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>431</v>
-      </c>
-      <c r="AY26">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>432</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>632</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>638</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>646</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>644</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>645</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>647</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>433</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>434</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>435</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>436</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>437</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>438</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>440</v>
-      </c>
-      <c r="BO26">
-        <v>1</v>
-      </c>
-      <c r="BP26">
-        <v>0</v>
-      </c>
-      <c r="BQ26">
-        <v>1</v>
-      </c>
-      <c r="BR26">
-        <v>1</v>
-      </c>
-      <c r="BS26">
-        <v>1</v>
-      </c>
-      <c r="BT26">
-        <v>0</v>
-      </c>
-      <c r="BU26">
-        <v>1</v>
-      </c>
-      <c r="BV26">
-        <v>0</v>
-      </c>
-      <c r="BW26">
-        <v>0</v>
-      </c>
-      <c r="BX26">
-        <v>0</v>
-      </c>
-      <c r="BY26">
-        <v>1</v>
-      </c>
-      <c r="BZ26">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="s">
-        <v>441</v>
       </c>
       <c r="CC26">
         <v>1</v>
@@ -10769,13 +10755,13 @@
         <v>23</v>
       </c>
       <c r="CQ26" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="CR26" t="s">
         <v>26</v>
       </c>
       <c r="CS26" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="CT26" t="s">
         <v>26</v>
@@ -10790,19 +10776,19 @@
         <v>28</v>
       </c>
       <c r="CX26" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY26" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ26" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA26" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB26" t="s">
-        <v>444</v>
+        <v>773</v>
       </c>
       <c r="DC26" t="s">
         <v>1</v>
@@ -10826,30 +10812,30 @@
         <v>6</v>
       </c>
       <c r="DN26" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>755</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B27" t="s">
+        <v>758</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>1</v>
       </c>
       <c r="G27">
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -10858,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -10885,7 +10871,7 @@
         <v>2231</v>
       </c>
       <c r="T27" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="V27">
         <v>6</v>
@@ -10893,7 +10879,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="2"/>
       <c r="BN27" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="BO27">
         <v>1</v>
@@ -10932,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="CB27" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="CC27">
         <v>2</v>
@@ -10977,13 +10963,13 @@
         <v>23</v>
       </c>
       <c r="CQ27" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="CR27" t="s">
         <v>26</v>
       </c>
       <c r="CS27" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="CT27" t="s">
         <v>26</v>
@@ -10998,19 +10984,19 @@
         <v>28</v>
       </c>
       <c r="CX27" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY27" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ27" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA27" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB27" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="DC27" t="s">
         <v>1</v>
@@ -11037,30 +11023,30 @@
         <v>3</v>
       </c>
       <c r="DN27" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>756</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="B28" t="s">
+        <v>757</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
         <v>1</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -11069,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -11093,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="V28">
         <v>5</v>
@@ -11101,7 +11087,7 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="2"/>
       <c r="BN28" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="BO28">
         <v>0</v>
@@ -11140,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="CB28" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="CC28">
         <v>0</v>
@@ -11185,7 +11171,7 @@
         <v>22</v>
       </c>
       <c r="CQ28" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="CR28" t="s">
         <v>24</v>
@@ -11203,7 +11189,7 @@
         <v>27</v>
       </c>
       <c r="DB28" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="DC28" t="s">
         <v>3</v>
@@ -11214,25 +11200,25 @@
     </row>
     <row r="29" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>757</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B29" t="s">
+        <v>758</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>1</v>
       </c>
       <c r="G29">
         <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -11241,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -11265,12 +11251,12 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="Z29" s="3"/>
       <c r="AA29" s="2"/>
       <c r="BN29" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="BO29">
         <v>0</v>
@@ -11309,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="CB29" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="CC29">
         <v>1</v>
@@ -11354,13 +11340,13 @@
         <v>21</v>
       </c>
       <c r="CQ29" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="CR29" t="s">
         <v>24</v>
       </c>
       <c r="CS29" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="CT29" t="s">
         <v>24</v>
@@ -11375,19 +11361,19 @@
         <v>27</v>
       </c>
       <c r="CX29" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CY29" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="CZ29" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="DA29" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB29" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="DC29" t="s">
         <v>1</v>
@@ -11414,30 +11400,30 @@
         <v>3</v>
       </c>
       <c r="DN29" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>743</v>
+      </c>
+      <c r="B30" t="s">
         <v>758</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>1</v>
       </c>
       <c r="G30">
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -11446,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -11470,12 +11456,12 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AA30" s="2"/>
       <c r="BN30" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="BO30">
         <v>1</v>
@@ -11514,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="CB30" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="CC30">
         <v>2</v>
@@ -11559,13 +11545,13 @@
         <v>21</v>
       </c>
       <c r="CQ30" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="CR30" t="s">
         <v>26</v>
       </c>
       <c r="CS30" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="CT30" t="s">
         <v>26</v>
@@ -11580,19 +11566,19 @@
         <v>28</v>
       </c>
       <c r="CX30" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CY30" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CZ30" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA30" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB30" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="DC30" t="s">
         <v>1</v>
@@ -11619,30 +11605,30 @@
         <v>3</v>
       </c>
       <c r="DN30" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>759</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B31" t="s">
+        <v>758</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>1</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -11651,7 +11637,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -11678,7 +11664,7 @@
         <v>7177</v>
       </c>
       <c r="T31" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="U31">
         <v>6</v>
@@ -11693,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="Z31" s="3"/>
       <c r="AA31" s="2"/>
@@ -11704,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="AJ31" t="s">
         <v>3</v>
@@ -11716,82 +11702,82 @@
         <v>1</v>
       </c>
       <c r="AM31" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="AN31" t="s">
         <v>1</v>
       </c>
       <c r="AO31" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="AP31" t="s">
         <v>1</v>
       </c>
       <c r="AQ31" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="AR31" t="s">
         <v>1</v>
       </c>
       <c r="AS31" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AT31" t="s">
         <v>1</v>
       </c>
       <c r="AU31" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AV31" t="s">
         <v>1</v>
       </c>
       <c r="AW31" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="AY31">
         <v>0</v>
       </c>
       <c r="BA31" t="s">
+        <v>617</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>630</v>
+      </c>
+      <c r="BC31" t="s">
         <v>632</v>
       </c>
-      <c r="BB31" t="s">
-        <v>645</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>647</v>
-      </c>
       <c r="BD31" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="BE31" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="BF31" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="BG31" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="BH31" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="BI31" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="BJ31" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="BK31" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="BL31" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="BM31" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="BN31" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="BO31">
         <v>0</v>
@@ -11830,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="CB31" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="CC31">
         <v>1</v>
@@ -11875,13 +11861,13 @@
         <v>23</v>
       </c>
       <c r="CQ31" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="CR31" t="s">
         <v>27</v>
       </c>
       <c r="CS31" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="CT31" t="s">
         <v>27</v>
@@ -11896,19 +11882,19 @@
         <v>28</v>
       </c>
       <c r="CX31" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY31" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ31" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DA31" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DB31" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="DC31" t="s">
         <v>1</v>
@@ -11938,30 +11924,30 @@
         <v>3</v>
       </c>
       <c r="DN31" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>760</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B32" t="s">
+        <v>758</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>1</v>
       </c>
       <c r="G32">
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -11970,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -11994,12 +11980,12 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="2"/>
       <c r="BN32" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="BO32">
         <v>0</v>
@@ -12038,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="CB32" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="CC32">
         <v>2</v>
@@ -12083,7 +12069,7 @@
         <v>21</v>
       </c>
       <c r="CQ32" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="CR32" t="s">
         <v>24</v>
@@ -12101,19 +12087,19 @@
         <v>28</v>
       </c>
       <c r="CX32" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY32" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="CZ32" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="DA32" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB32" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="DC32" t="s">
         <v>1</v>
@@ -12137,23 +12123,23 @@
         <v>3</v>
       </c>
       <c r="DN32" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>761</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B33" t="s">
+        <v>757</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
         <v>1</v>
       </c>
       <c r="G33">
@@ -12169,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -12196,7 +12182,7 @@
         <v>5602</v>
       </c>
       <c r="T33" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="U33">
         <v>5</v>
@@ -12233,142 +12219,142 @@
         <v>3</v>
       </c>
       <c r="AI33" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="AJ33" t="s">
         <v>3</v>
       </c>
       <c r="AK33" t="s">
+        <v>546</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>547</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>548</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>549</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>550</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>551</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>552</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>553</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>554</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>630</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>623</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>632</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>631</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>555</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>556</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>557</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>558</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>559</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>560</v>
+      </c>
+      <c r="BM33" t="s">
         <v>561</v>
       </c>
-      <c r="AL33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM33" t="s">
+      <c r="BN33" t="s">
         <v>562</v>
       </c>
-      <c r="AN33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO33" t="s">
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
+      <c r="BR33">
+        <v>1</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
+        <v>1</v>
+      </c>
+      <c r="BU33">
+        <v>0</v>
+      </c>
+      <c r="BV33">
+        <v>0</v>
+      </c>
+      <c r="BW33">
+        <v>0</v>
+      </c>
+      <c r="BX33">
+        <v>0</v>
+      </c>
+      <c r="BY33">
+        <v>1</v>
+      </c>
+      <c r="BZ33">
+        <v>1</v>
+      </c>
+      <c r="CA33" t="s">
         <v>563</v>
       </c>
-      <c r="AP33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="s">
+      <c r="CB33" t="s">
         <v>564</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>565</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>566</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>567</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>568</v>
-      </c>
-      <c r="AY33">
-        <v>1</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>569</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>644</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>645</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>632</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>638</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>647</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>646</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>570</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>571</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>572</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>573</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>574</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>575</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>576</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>577</v>
-      </c>
-      <c r="BO33">
-        <v>1</v>
-      </c>
-      <c r="BP33">
-        <v>0</v>
-      </c>
-      <c r="BQ33">
-        <v>0</v>
-      </c>
-      <c r="BR33">
-        <v>1</v>
-      </c>
-      <c r="BS33">
-        <v>0</v>
-      </c>
-      <c r="BT33">
-        <v>1</v>
-      </c>
-      <c r="BU33">
-        <v>0</v>
-      </c>
-      <c r="BV33">
-        <v>0</v>
-      </c>
-      <c r="BW33">
-        <v>0</v>
-      </c>
-      <c r="BX33">
-        <v>0</v>
-      </c>
-      <c r="BY33">
-        <v>1</v>
-      </c>
-      <c r="BZ33">
-        <v>1</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>578</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>579</v>
       </c>
       <c r="CC33">
         <v>0</v>
@@ -12413,13 +12399,13 @@
         <v>23</v>
       </c>
       <c r="CQ33" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="CR33" t="s">
         <v>26</v>
       </c>
       <c r="CS33" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="CT33" t="s">
         <v>26</v>
@@ -12434,19 +12420,19 @@
         <v>28</v>
       </c>
       <c r="CX33" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CY33" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CZ33" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA33" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB33" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="DC33" t="s">
         <v>1</v>
@@ -12476,30 +12462,30 @@
         <v>3</v>
       </c>
       <c r="DN33" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>762</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B34" t="s">
+        <v>757</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
         <v>1</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -12508,7 +12494,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -12532,12 +12518,12 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="2"/>
       <c r="BN34" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="BO34">
         <v>0</v>
@@ -12576,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="CB34" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="CC34">
         <v>-1</v>
@@ -12621,13 +12607,13 @@
         <v>23</v>
       </c>
       <c r="CQ34" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="CR34" t="s">
         <v>24</v>
       </c>
       <c r="CS34" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="CT34" t="s">
         <v>24</v>
@@ -12642,19 +12628,19 @@
         <v>27</v>
       </c>
       <c r="CX34" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CY34" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="CZ34" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="DA34" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB34" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="DC34" t="s">
         <v>1</v>
@@ -12678,30 +12664,30 @@
         <v>3</v>
       </c>
       <c r="DN34" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>763</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B35" t="s">
+        <v>757</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>1</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -12710,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -12734,12 +12720,12 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="2"/>
       <c r="BN35" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="BO35">
         <v>1</v>
@@ -12778,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="CB35" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="CC35">
         <v>1</v>
@@ -12823,13 +12809,13 @@
         <v>23</v>
       </c>
       <c r="CQ35" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="CR35" t="s">
         <v>26</v>
       </c>
       <c r="CS35" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="CT35" t="s">
         <v>26</v>
@@ -12844,19 +12830,19 @@
         <v>28</v>
       </c>
       <c r="CX35" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="CY35" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="CZ35" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="DA35" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="DB35" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="DC35" t="s">
         <v>1</v>
@@ -12880,7 +12866,7 @@
         <v>3</v>
       </c>
       <c r="DN35" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.2">
@@ -12893,42 +12879,42 @@
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="2"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="Z40" s="4"/>
       <c r="AA40" s="2"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="Z41" s="4"/>
       <c r="AA41" s="2"/>
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="2"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="Z43" s="4"/>
       <c r="AA43" s="2"/>
